--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1578260.407794542</v>
+        <v>-1580836.729275784</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140.0596812496531</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>24.04388985474273</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>93.6687437765159</v>
       </c>
       <c r="U4" t="n">
-        <v>6.944421521837088</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2781875329266</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>65.33825739391169</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H6" t="n">
         <v>89.59687541851115</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.4735778903242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>71.30622015837479</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>27.55805524026489</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>318.3093311981993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>127.3385186497852</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>53.54735467376835</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819381</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.9263824507412</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>71.60395572453902</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>167.7926244180741</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>224.7837165195613</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>42.14967908986333</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1888.09808975843</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1519.135572818019</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D2" t="n">
-        <v>1160.869874211268</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E2" t="n">
-        <v>775.0816216130238</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="F2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
         <v>66.51211643218342</v>
@@ -4328,16 +4328,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.57251526313</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2029.57251526313</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>896.6002483891518</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>704.9143642159781</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877109</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U4" t="n">
-        <v>692.1058231939361</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V4" t="n">
-        <v>437.4213349880492</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W4" t="n">
-        <v>437.4213349880492</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X4" t="n">
-        <v>437.4213349880492</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.509627919559</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C5" t="n">
-        <v>1329.547110979147</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>971.2814123723965</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E5" t="n">
-        <v>585.4931597741522</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>174.5072549845447</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4626,13 +4626,13 @@
         <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959802</v>
+        <v>138.5386014406428</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959802</v>
+        <v>138.5386014406428</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959802</v>
+        <v>138.5386014406428</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>138.5386014406428</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>138.5386014406428</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4750,25 +4750,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>417.6040489720652</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="V7" t="n">
-        <v>417.6040489720652</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="W7" t="n">
-        <v>417.6040489720652</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="X7" t="n">
-        <v>417.6040489720652</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.6040489720652</v>
+        <v>320.1870662708825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>916.6290841382831</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>558.3633855315327</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X8" t="n">
-        <v>2335.044173282495</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1944.904841306683</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>195.1368827450977</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>195.1368827450977</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>195.1368827450977</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V10" t="n">
-        <v>666.202517612298</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W10" t="n">
-        <v>376.7853475753374</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="X10" t="n">
-        <v>376.7853475753374</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="Y10" t="n">
-        <v>376.7853475753374</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277347</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2307.590151828076</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>633.4413279836774</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1807.973581098312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1553.289092892425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1263.871922855465</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.882371957447</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>815.0897928139171</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1750.40682139984</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1495.722333193953</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>424.9938751277886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>278.1039276298782</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6613,13 +6613,13 @@
         <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,40 +6947,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,37 +7072,37 @@
         <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7111,10 +7111,10 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
@@ -7327,34 +7327,34 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,31 +7555,31 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380722</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,13 +7807,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>242.6741604138275</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>280.1262230804342</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,7 +22708,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22720,7 +22720,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>125.8802054996533</v>
       </c>
       <c r="U4" t="n">
-        <v>69.62413895414761</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.50758019582793</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>109.4223302771056</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>118.3918499711701</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>61.40075786968285</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.3744592024055</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1285894.549672056</v>
+        <v>1285894.549672055</v>
       </c>
     </row>
     <row r="10">
@@ -26314,19 +26314,19 @@
         <v>116044.8438455267</v>
       </c>
       <c r="C2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="D2" t="n">
         <v>143682.3097262497</v>
-      </c>
-      <c r="D2" t="n">
-        <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="F2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
@@ -26338,16 +26338,16 @@
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="L2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="M2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="N2" t="n">
         <v>143682.3097262496</v>
-      </c>
-      <c r="L2" t="n">
-        <v>143682.3097262496</v>
-      </c>
-      <c r="M2" t="n">
-        <v>143682.3097262496</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262496</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363173</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3456.426522020556</v>
+        <v>3456.426522020518</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687968</v>
@@ -26439,25 +26439,25 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687964</v>
       </c>
       <c r="K4" t="n">
-        <v>23427.49926997316</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997311</v>
       </c>
       <c r="N4" t="n">
         <v>23427.49926997314</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997315</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997312</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1324090.26896548</v>
+        <v>-1324485.089906633</v>
       </c>
       <c r="C6" t="n">
-        <v>-57848.3749391962</v>
+        <v>-57848.37493919625</v>
       </c>
       <c r="D6" t="n">
-        <v>-57848.3749391962</v>
+        <v>-57848.37493919615</v>
       </c>
       <c r="E6" t="n">
-        <v>-300720.9766923909</v>
+        <v>-300755.7146178266</v>
       </c>
       <c r="F6" t="n">
-        <v>24691.48511496432</v>
+        <v>24656.74718952857</v>
       </c>
       <c r="G6" t="n">
-        <v>24691.48511496429</v>
+        <v>24656.74718952857</v>
       </c>
       <c r="H6" t="n">
-        <v>24691.48511496431</v>
+        <v>24656.74718952859</v>
       </c>
       <c r="I6" t="n">
-        <v>24691.48511496435</v>
+        <v>24656.74718952863</v>
       </c>
       <c r="J6" t="n">
-        <v>-192839.7172823132</v>
+        <v>-192874.4552077489</v>
       </c>
       <c r="K6" t="n">
-        <v>-2337.02339127069</v>
+        <v>-2337.023391270617</v>
       </c>
       <c r="L6" t="n">
-        <v>17090.69460236107</v>
+        <v>17090.69460236114</v>
       </c>
       <c r="M6" t="n">
-        <v>-67964.3333331508</v>
+        <v>-67964.33333315073</v>
       </c>
       <c r="N6" t="n">
-        <v>17090.69460236112</v>
+        <v>17090.69460236109</v>
       </c>
       <c r="O6" t="n">
-        <v>17090.69460236109</v>
+        <v>17090.69460236108</v>
       </c>
       <c r="P6" t="n">
-        <v>-2337.023391270632</v>
+        <v>-2337.023391270588</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>64.8882628153046</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>209.6432777296282</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>240.9947042380809</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>345.5834682595417</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.35840229161315</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>94.71958810065344</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>354.3723148319969</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>51.42176948026969</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>19.095443996784</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28062,13 +28062,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>165.0372986783264</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,13 +31850,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>473.8581708471803</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>430.400187030115</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>198.560797075695</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832324</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935915</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>316.0872899694776</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>577.7447198439381</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34451,7 +34451,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,13 +35498,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>342.516458763847</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>291.8458072502408</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998991</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>173.4910455250332</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>439.190340064064</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980851</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
